--- a/FeatureModel/approachesVSfeatures.xlsx
+++ b/FeatureModel/approachesVSfeatures.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Kasaei-Tez\Paper10\Visio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F262564-D673-44FE-857B-DDD24B596078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED4BA32-F297-4668-A12B-72A2FF9CCA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,9 +159,6 @@
     <t>Exelmans, Joeri, Ciprian Teodorov, Robert Heinrich, Alexander Egyed, and Hans Vangheluwe</t>
   </si>
   <si>
-    <t>VCS</t>
-  </si>
-  <si>
     <t>Internal</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>Versioning Architecture</t>
   </si>
   <si>
-    <t>Versioning Artifact</t>
-  </si>
-  <si>
     <t>General (text)</t>
   </si>
   <si>
@@ -270,9 +264,6 @@
     <t>Explicit</t>
   </si>
   <si>
-    <t>Privacy</t>
-  </si>
-  <si>
     <t>Private</t>
   </si>
   <si>
@@ -282,18 +273,12 @@
     <t>Protected</t>
   </si>
   <si>
-    <t>Pattern</t>
-  </si>
-  <si>
     <t>Long-Lived</t>
   </si>
   <si>
     <t>Short-Lived</t>
   </si>
   <si>
-    <t>Strategy</t>
-  </si>
-  <si>
     <t>Full</t>
   </si>
   <si>
@@ -415,6 +400,21 @@
   </si>
   <si>
     <t>future work will look at adding the 3- or 4-way merges from tools like EMF Compare or CDO, allowing offline work to be more easily integrated</t>
+  </si>
+  <si>
+    <t>Representation</t>
+  </si>
+  <si>
+    <t>Versioning mechanism</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Pattern (lifecycle )</t>
+  </si>
+  <si>
+    <t>Scope</t>
   </si>
 </sst>
 </file>
@@ -518,25 +518,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AM13" sqref="AM13"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AI14" sqref="AI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.45"/>
@@ -842,271 +842,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
+      <c r="D1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>92</v>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="T3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AA3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AC3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD3" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AE3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF3" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AG3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AH3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI3" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AF3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="7"/>
+      <c r="AJ3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="8"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.45">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
       <c r="U4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="7"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="8"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
@@ -1145,10 +1145,10 @@
       <c r="L5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="8"/>
+      <c r="M5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="10"/>
       <c r="O5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1179,7 +1179,7 @@
       <c r="X5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y5" s="10"/>
+      <c r="Y5" s="11"/>
       <c r="Z5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1213,12 +1213,12 @@
       <c r="AJ5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AK5" s="11"/>
+      <c r="AK5" s="6"/>
       <c r="AL5" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.45">
@@ -1294,7 +1294,7 @@
       <c r="X6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y6" s="10"/>
+      <c r="Y6" s="11"/>
       <c r="Z6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1328,12 +1328,12 @@
       <c r="AJ6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AK6" s="11"/>
+      <c r="AK6" s="6"/>
       <c r="AL6" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.45">
@@ -1373,10 +1373,10 @@
       <c r="L7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" s="8"/>
+      <c r="M7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="10"/>
       <c r="O7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="X7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y7" s="10"/>
+      <c r="Y7" s="11"/>
       <c r="Z7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1441,12 +1441,12 @@
       <c r="AJ7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AK7" s="11"/>
+      <c r="AK7" s="6"/>
       <c r="AL7" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.45">
@@ -1486,10 +1486,10 @@
       <c r="L8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="8"/>
+      <c r="M8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="10"/>
       <c r="O8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="X8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y8" s="10"/>
+      <c r="Y8" s="11"/>
       <c r="Z8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1554,12 +1554,12 @@
       <c r="AJ8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AK8" s="11"/>
+      <c r="AK8" s="6"/>
       <c r="AL8" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.45">
@@ -1599,10 +1599,10 @@
       <c r="L9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="8"/>
+      <c r="M9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="10"/>
       <c r="O9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1633,7 +1633,7 @@
       <c r="X9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="10"/>
+      <c r="Y9" s="11"/>
       <c r="Z9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1667,12 +1667,12 @@
       <c r="AJ9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AK9" s="11"/>
+      <c r="AK9" s="6"/>
       <c r="AL9" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.45">
@@ -1748,7 +1748,7 @@
       <c r="X10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y10" s="10"/>
+      <c r="Y10" s="11"/>
       <c r="Z10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1782,12 +1782,12 @@
       <c r="AJ10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AK10" s="11"/>
+      <c r="AK10" s="6"/>
       <c r="AL10" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.45">
@@ -1827,10 +1827,10 @@
       <c r="L11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="8"/>
+      <c r="M11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="10"/>
       <c r="O11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="X11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y11" s="10"/>
+      <c r="Y11" s="11"/>
       <c r="Z11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1895,12 +1895,12 @@
       <c r="AJ11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AK11" s="11"/>
+      <c r="AK11" s="6"/>
       <c r="AL11" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.45">
@@ -1940,10 +1940,10 @@
       <c r="L12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" s="8"/>
+      <c r="M12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="10"/>
       <c r="O12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="X12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Y12" s="10"/>
+      <c r="Y12" s="11"/>
       <c r="Z12" s="3" t="s">
         <v>6</v>
       </c>
@@ -2008,12 +2008,12 @@
       <c r="AJ12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AK12" s="11"/>
+      <c r="AK12" s="6"/>
       <c r="AL12" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.45">
@@ -2053,10 +2053,10 @@
       <c r="L13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="8"/>
+      <c r="M13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" s="10"/>
       <c r="O13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2087,7 +2087,7 @@
       <c r="X13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y13" s="10"/>
+      <c r="Y13" s="11"/>
       <c r="Z13" s="4" t="s">
         <v>7</v>
       </c>
@@ -2121,12 +2121,12 @@
       <c r="AJ13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AK13" s="11"/>
+      <c r="AK13" s="6"/>
       <c r="AL13" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.45">
@@ -2202,7 +2202,7 @@
       <c r="X14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y14" s="10"/>
+      <c r="Y14" s="11"/>
       <c r="Z14" s="4" t="s">
         <v>7</v>
       </c>
@@ -2236,12 +2236,12 @@
       <c r="AJ14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AK14" s="11"/>
+      <c r="AK14" s="6"/>
       <c r="AL14" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.45">
@@ -2317,7 +2317,7 @@
       <c r="X15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y15" s="10"/>
+      <c r="Y15" s="11"/>
       <c r="Z15" s="4" t="s">
         <v>7</v>
       </c>
@@ -2351,12 +2351,12 @@
       <c r="AJ15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AK15" s="11"/>
+      <c r="AK15" s="6"/>
       <c r="AL15" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.45">
@@ -2432,7 +2432,7 @@
       <c r="X16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y16" s="10"/>
+      <c r="Y16" s="11"/>
       <c r="Z16" s="4" t="s">
         <v>7</v>
       </c>
@@ -2466,12 +2466,12 @@
       <c r="AJ16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AK16" s="11"/>
+      <c r="AK16" s="6"/>
       <c r="AL16" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.45">
@@ -2511,10 +2511,10 @@
       <c r="L17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" s="8"/>
+      <c r="M17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="10"/>
       <c r="O17" s="3" t="s">
         <v>6</v>
       </c>
@@ -2545,7 +2545,7 @@
       <c r="X17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y17" s="10"/>
+      <c r="Y17" s="11"/>
       <c r="Z17" s="4" t="s">
         <v>7</v>
       </c>
@@ -2579,12 +2579,12 @@
       <c r="AJ17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AK17" s="11"/>
+      <c r="AK17" s="6"/>
       <c r="AL17" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AM17" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.45">
@@ -2624,10 +2624,10 @@
       <c r="L18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N18" s="8"/>
+      <c r="M18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" s="10"/>
       <c r="O18" s="3" t="s">
         <v>6</v>
       </c>
@@ -2658,7 +2658,7 @@
       <c r="X18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y18" s="10"/>
+      <c r="Y18" s="11"/>
       <c r="Z18" s="4" t="s">
         <v>7</v>
       </c>
@@ -2692,12 +2692,12 @@
       <c r="AJ18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AK18" s="11"/>
+      <c r="AK18" s="6"/>
       <c r="AL18" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AM18" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.45">
@@ -2773,7 +2773,7 @@
       <c r="X19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y19" s="10"/>
+      <c r="Y19" s="11"/>
       <c r="Z19" s="4" t="s">
         <v>7</v>
       </c>
@@ -2807,12 +2807,12 @@
       <c r="AJ19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AK19" s="11"/>
+      <c r="AK19" s="6"/>
       <c r="AL19" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AM19" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.45">
@@ -2888,7 +2888,7 @@
       <c r="X20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y20" s="10"/>
+      <c r="Y20" s="11"/>
       <c r="Z20" s="3" t="s">
         <v>6</v>
       </c>
@@ -2922,12 +2922,12 @@
       <c r="AJ20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AK20" s="11"/>
+      <c r="AK20" s="6"/>
       <c r="AL20" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AM20" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.45">
@@ -3003,7 +3003,7 @@
       <c r="X21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y21" s="10"/>
+      <c r="Y21" s="11"/>
       <c r="Z21" s="4" t="s">
         <v>7</v>
       </c>
@@ -3037,12 +3037,12 @@
       <c r="AJ21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AK21" s="11"/>
+      <c r="AK21" s="6"/>
       <c r="AL21" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="AM21" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.45">
@@ -3083,10 +3083,10 @@
         <v>7</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>6</v>
@@ -3118,7 +3118,7 @@
       <c r="X22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y22" s="10"/>
+      <c r="Y22" s="11"/>
       <c r="Z22" s="4" t="s">
         <v>7</v>
       </c>
@@ -3152,12 +3152,12 @@
       <c r="AJ22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AK22" s="11"/>
+      <c r="AK22" s="6"/>
       <c r="AL22" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AM22" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.45">
@@ -3233,7 +3233,7 @@
       <c r="X23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y23" s="10"/>
+      <c r="Y23" s="11"/>
       <c r="Z23" s="4" t="s">
         <v>7</v>
       </c>
@@ -3267,12 +3267,12 @@
       <c r="AJ23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AK23" s="11"/>
+      <c r="AK23" s="6"/>
       <c r="AL23" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AM23" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.45">
@@ -3491,6 +3491,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:Y23"/>
     <mergeCell ref="AK2:AK23"/>
     <mergeCell ref="AL2:AL4"/>
     <mergeCell ref="AM2:AM4"/>
@@ -3507,48 +3549,6 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:Y23"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
